--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2168826.298720915</v>
+        <v>-2171545.699865161</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>34.49741614008339</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>202.3062097382235</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.4308682682699</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.58708691994661</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>121.9320903613519</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>334.8112840976137</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>324.2731963782039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>146.6457319163886</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>169.9127442872881</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>45.43347330582912</v>
       </c>
       <c r="I8" t="n">
-        <v>47.99787796633384</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.78064521836215</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>70.93248476419005</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>73.74785292486033</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.0312718434581</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>213.6608990998122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>64.35711883683373</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>113.8415422301048</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.0162797694411</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>867.5113594131251</v>
+        <v>1892.714748808714</v>
       </c>
       <c r="C2" t="n">
-        <v>867.5113594131251</v>
+        <v>1892.714748808714</v>
       </c>
       <c r="D2" t="n">
-        <v>867.5113594131251</v>
+        <v>1534.449050201964</v>
       </c>
       <c r="E2" t="n">
-        <v>867.5113594131251</v>
+        <v>1148.66079760372</v>
       </c>
       <c r="F2" t="n">
-        <v>456.5254546235175</v>
+        <v>737.6748928141121</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>321.970142538401</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1892.714748808714</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1892.714748808714</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1892.714748808714</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>1892.714748808714</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114678</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.3397283635626</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>403.4035454356557</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>1290.303911631504</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.549477544053</v>
+        <v>1035.619423425617</v>
       </c>
       <c r="W4" t="n">
-        <v>793.1323075070927</v>
+        <v>746.2022533886562</v>
       </c>
       <c r="X4" t="n">
-        <v>793.1323075070927</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.3397283635626</v>
+        <v>518.2127024906389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.959102576163</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.996585635751</v>
+        <v>712.1089938151592</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4604,13 +4604,13 @@
         <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X5" t="n">
-        <v>1550.959102576163</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.959102576163</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>482.9033490193021</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>777.6069060507739</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.1188826722662</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="C7" t="n">
-        <v>303.9918807365201</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1362.233678956455</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1362.233678956455</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1107.549190750568</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.549477544053</v>
+        <v>818.1320207136077</v>
       </c>
       <c r="X7" t="n">
-        <v>854.559926646036</v>
+        <v>590.1424698155904</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.7673475025059</v>
+        <v>369.3498906720603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>880.645441216167</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="C8" t="n">
-        <v>880.645441216167</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="D8" t="n">
-        <v>522.3797426094166</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="E8" t="n">
-        <v>522.3797426094166</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="F8" t="n">
-        <v>111.393837819809</v>
+        <v>579.2175832864411</v>
       </c>
       <c r="G8" t="n">
-        <v>99.72949158450193</v>
+        <v>163.51283301073</v>
       </c>
       <c r="H8" t="n">
-        <v>99.72949158450193</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.784773191979</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y8" t="n">
-        <v>880.645441216167</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300791</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476953</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.2777578464827</v>
+        <v>642.7634789947318</v>
       </c>
       <c r="C10" t="n">
-        <v>372.3415749185758</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D10" t="n">
-        <v>372.3415749185758</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E10" t="n">
-        <v>372.3415749185758</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1564.797145565214</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1341.81866475995</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1341.81866475995</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880302</v>
+        <v>1341.81866475995</v>
       </c>
       <c r="W10" t="n">
-        <v>990.0598878880302</v>
+        <v>1052.401494722989</v>
       </c>
       <c r="X10" t="n">
-        <v>762.0703369900128</v>
+        <v>824.4119438249716</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.2777578464827</v>
+        <v>824.4119438249716</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>878.3568999154051</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>709.4207169874982</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>559.3040775751624</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993913</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058935</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.0966395286528</v>
+        <v>878.3568999154051</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>926.9575315319319</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942649</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345477</v>
@@ -6379,40 +6379,40 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311314</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838285</v>
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,16 +6549,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7017,22 +7017,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150012</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7549,46 +7549,46 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,10 +7597,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>255.8421700460949</v>
+        <v>114.3555089013343</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>186.4490126143846</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>255.5240487471574</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>274.0447583019258</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>98.7123428241819</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.02838609826574</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>72.68610972170885</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>12.04875628922494</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.36835372228754</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>82.07684380973544</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>111.8681131589323</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>113.4176828771281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215493</v>
+        <v>48691.36674215495</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="E2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60535.99497675043</v>
+      </c>
+      <c r="J2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982129</v>
-      </c>
-      <c r="E2" t="n">
-        <v>60535.99497675044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>60535.99497675047</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60535.99497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>61578.13273982125</v>
-      </c>
       <c r="K2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982126</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036142</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33838.50360469849</v>
+        <v>33838.50360469848</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26427,34 +26427,34 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707385</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707376</v>
+        <v>6897.424496707373</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707382</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="J4" t="n">
-        <v>14888.28375980088</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980084</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1192836.692878308</v>
+        <v>-1193266.251744897</v>
       </c>
       <c r="C6" t="n">
         <v>-163269.3665316484</v>
@@ -26528,25 +26528,25 @@
         <v>-163269.3665316484</v>
       </c>
       <c r="E6" t="n">
-        <v>-554969.40096841</v>
+        <v>-555004.1388938456</v>
       </c>
       <c r="F6" t="n">
-        <v>-47483.95934386403</v>
+        <v>-47518.69726929972</v>
       </c>
       <c r="G6" t="n">
-        <v>-47483.95934386402</v>
+        <v>-47518.69726929972</v>
       </c>
       <c r="H6" t="n">
-        <v>-47483.95934386403</v>
+        <v>-47518.69726929974</v>
       </c>
       <c r="I6" t="n">
-        <v>-47483.95934386406</v>
+        <v>-47518.69726929974</v>
       </c>
       <c r="J6" t="n">
         <v>-243507.1626775092</v>
       </c>
       <c r="K6" t="n">
-        <v>-56474.26687389501</v>
+        <v>-56474.26687389509</v>
       </c>
       <c r="L6" t="n">
         <v>-56474.26687389499</v>
@@ -26555,13 +26555,13 @@
         <v>-189081.5606028217</v>
       </c>
       <c r="N6" t="n">
-        <v>-56474.26687389499</v>
+        <v>-56474.26687389498</v>
       </c>
       <c r="O6" t="n">
-        <v>-75901.98486752674</v>
+        <v>-75901.98486752671</v>
       </c>
       <c r="P6" t="n">
-        <v>-56474.26687389497</v>
+        <v>-56474.26687389502</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>91.2281334690818</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>377.0502866328706</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.32139020186497</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>164.2950637598487</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>19.87175752306922</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>45.45790430026511</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>20.60108918223924</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>50.83595170992388</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>255.5850792565763</v>
       </c>
       <c r="I8" t="n">
-        <v>17.71203470613666</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>98.64040280456909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>123.7299755975474</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9501404413636</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>463.4318227833011</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,19 +34451,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5216991696271</v>
+        <v>364.0350380248667</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578695</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>505.2035778706896</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35650,10 +35650,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>295.6084283580303</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367781</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>320.8355783388566</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
